--- a/participants/participant_39/participant_39_task_orders.xlsx
+++ b/participants/participant_39/participant_39_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731230665412" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731252470639" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731252479706" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731253103015" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731253723314" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912592046068" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912617715423" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912617725577" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912618352811" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291261924708" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731230344932.csv</t>
+          <t>go_stims-16502912591619687.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873123049529.csv</t>
+          <t>GNG_stims-16502912591782024.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731230504959.csv</t>
+          <t>go_stims-16502912591823313.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731230655255.csv</t>
+          <t>GNG_stims-16502912592036169.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731239698224.csv</t>
+          <t>OB-16502912606399279.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-1649873123579372.csv</t>
+          <t>OB-16502912605634775.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498731237907846.csv</t>
+          <t>ZB-match_8-165029126015198.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731244070063.csv</t>
+          <t>TB-16502912617522125.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498731237624066.csv</t>
+          <t>OB-16502912606123722.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498731244600017.csv</t>
+          <t>ZB-match_6-16502912596277783.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498731236273723.csv</t>
+          <t>ZB-match_4-16502912596718059.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498731232343721.csv</t>
+          <t>TB-165029126069051.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498731252340038.csv</t>
+          <t>TB-1650291260730635.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731252779746.csv</t>
+          <t>MM_stims-16502912617867548.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873125252974.csv</t>
+          <t>ZM_stims-16502912617745419.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731252939749.csv</t>
+          <t>MM_stims-16502912618183393.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873125278971.csv</t>
+          <t>ZM_stims-1650291261787709.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731253093343.csv</t>
+          <t>MM_stims-16502912618342755.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731252949686.csv</t>
+          <t>ZM_stims-16502912618183393.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731253413346.csv</t>
+          <t>SAT_stims-16502912618510482.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731253573027.csv</t>
+          <t>vSAT_stims-16502912618765507.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731253142974.csv</t>
+          <t>SAT_stims-16502912618372746.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873125325297.csv</t>
+          <t>vSAT_stims-16502912619074228.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_39/participant_39_task_orders.xlsx
+++ b/participants/participant_39/participant_39_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912592046068" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912617715423" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912617725577" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912618352811" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291261924708" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778743014913" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477875553556" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477875559491" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477875616527" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778756805212" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912591619687.csv</t>
+          <t>go_stims-16504778742594943.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912591782024.csv</t>
+          <t>GNG_stims-16504778742845232.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912591823313.csv</t>
+          <t>go_stims-1650477874286491.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912592036169.csv</t>
+          <t>GNG_stims-16504778743004918.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912606399279.csv</t>
+          <t>OB-16504778745575228.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912605634775.csv</t>
+          <t>OB-1650477874978527.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_8-165029126015198.csv</t>
+          <t>TB-16504778750255194.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912617522125.csv</t>
+          <t>ZB-match_3-16504778744034915.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912606123722.csv</t>
+          <t>ZB-match_2-1650477874519528.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912596277783.csv</t>
+          <t>OB-16504778746884902.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912596718059.csv</t>
+          <t>TB-16504778755414913.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-165029126069051.csv</t>
+          <t>TB-1650477875235494.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650291260730635.csv</t>
+          <t>ZB-match_2-1650477874324489.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912617867548.csv</t>
+          <t>MM_stims-16504778755844915.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912617745419.csv</t>
+          <t>ZM_stims-16504778755604906.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912618183393.csv</t>
+          <t>MM_stims-16504778756005278.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291261787709.csv</t>
+          <t>ZM_stims-16504778755844915.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912618342755.csv</t>
+          <t>MM_stims-1650477875616527.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912618183393.csv</t>
+          <t>ZM_stims-16504778756005278.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912618510482.csv</t>
+          <t>vSAT_stims-16504778756485274.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912618765507.csv</t>
+          <t>SAT_stims-1650477875619491.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912618372746.csv</t>
+          <t>SAT_stims-16504778756324918.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912619074228.csv</t>
+          <t>vSAT_stims-16504778756645167.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_39/participant_39_task_orders.xlsx
+++ b/participants/participant_39/participant_39_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778743014913" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477875553556" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477875559491" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477875616527" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778756805212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961716033869" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996173875386" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996173875386" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961739394188" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961740114195" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778742594943.csv</t>
+          <t>go_stims-16509961715633795.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778742845232.csv</t>
+          <t>GNG_stims-1650996171587417.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477874286491.csv</t>
+          <t>go_stims-1650996171587417.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778743004918.csv</t>
+          <t>GNG_stims-16509961716033869.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778745575228.csv</t>
+          <t>OB-16509961734033883.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650477874978527.csv</t>
+          <t>ZB-match_9-16509961720434115.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778750255194.csv</t>
+          <t>TB-16509961738514166.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778744034915.csv</t>
+          <t>OB-1650996172067381.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650477874519528.csv</t>
+          <t>TB-16509961736914167.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778746884902.csv</t>
+          <t>TB-16509961736194248.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778755414913.csv</t>
+          <t>ZB-match_2-16509961716993792.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650477875235494.csv</t>
+          <t>ZB-match_0-1650996171931389.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650477874324489.csv</t>
+          <t>OB-1650996172603413.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778755844915.csv</t>
+          <t>MM_stims-16509961739074168.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778755604906.csv</t>
+          <t>ZM_stims-16509961738833904.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778756005278.csv</t>
+          <t>MM_stims-16509961739234197.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778755844915.csv</t>
+          <t>ZM_stims-16509961739074168.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477875616527.csv</t>
+          <t>MM_stims-16509961739394188.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778756005278.csv</t>
+          <t>ZM_stims-16509961739234197.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778756485274.csv</t>
+          <t>vSAT_stims-16509961739713817.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477875619491.csv</t>
+          <t>SAT_stims-1650996173955414.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778756324918.csv</t>
+          <t>SAT_stims-16509961739394188.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778756645167.csv</t>
+          <t>vSAT_stims-1650996173995436.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_39/participant_39_task_orders.xlsx
+++ b/participants/participant_39/participant_39_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961716033869" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996173875386" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996173875386" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961739394188" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961740114195" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687727284515" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687755140748" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687755150743" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687755776265" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687756495247" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961715633795.csv</t>
+          <t>go_stims-16511687726861825.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996171587417.csv</t>
+          <t>GNG_stims-16511687727111988.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996171587417.csv</t>
+          <t>go_stims-1651168772713195.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961716033869.csv</t>
+          <t>GNG_stims-16511687727264516.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961734033883.csv</t>
+          <t>TB-1651168775499689.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509961720434115.csv</t>
+          <t>ZB-match_1-1651168773260333.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961738514166.csv</t>
+          <t>OB-16511687745661666.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650996172067381.csv</t>
+          <t>ZB-match_1-16511687729423606.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961736914167.csv</t>
+          <t>TB-16511687751260526.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961736194248.csv</t>
+          <t>TB-16511687754561496.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961716993792.csv</t>
+          <t>OB-16511687744597564.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650996171931389.csv</t>
+          <t>OB-16511687743108726.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1650996172603413.csv</t>
+          <t>ZB-match_7-16511687730421767.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961739074168.csv</t>
+          <t>MM_stims-16511687755300474.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961738833904.csv</t>
+          <t>ZM_stims-16511687755170765.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961739234197.csv</t>
+          <t>MM_stims-16511687755610485.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961739074168.csv</t>
+          <t>ZM_stims-16511687755300474.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961739394188.csv</t>
+          <t>MM_stims-1651168775576623.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961739234197.csv</t>
+          <t>ZM_stims-1651168775562062.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961739713817.csv</t>
+          <t>SAT_stims-16511687755816746.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996173955414.csv</t>
+          <t>vSAT_stims-16511687756339335.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961739394188.csv</t>
+          <t>vSAT_stims-16511687756181574.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996173995436.csv</t>
+          <t>SAT_stims-16511687756027293.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_39/participant_39_task_orders.xlsx
+++ b/participants/participant_39/participant_39_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687727284515" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687755140748" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687755150743" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687755776265" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687756495247" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555979631255" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255599151795" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555991537955" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555991997964" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255599278794" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687726861825.csv</t>
+          <t>go_stims-16512555979321237.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687727111988.csv</t>
+          <t>GNG_stims-1651255597946125.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168772713195.csv</t>
+          <t>go_stims-16512555979481306.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687727264516.csv</t>
+          <t>GNG_stims-16512555979621267.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1651168775499689.csv</t>
+          <t>OB-16512555984497952.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651168773260333.csv</t>
+          <t>ZB-match_3-16512555982287967.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687745661666.csv</t>
+          <t>OB-16512555983977957.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687729423606.csv</t>
+          <t>TB-16512555990747952.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687751260526.csv</t>
+          <t>OB-1651255598597794.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511687754561496.csv</t>
+          <t>TB-16512555991347954.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511687744597564.csv</t>
+          <t>ZB-match_4-1651255598281795.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687743108726.csv</t>
+          <t>TB-1651255598685798.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687730421767.csv</t>
+          <t>ZB-match_6-16512555981737947.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687755300474.csv</t>
+          <t>MM_stims-1651255599167794.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687755170765.csv</t>
+          <t>ZM_stims-16512555991558046.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687755610485.csv</t>
+          <t>MM_stims-16512555991827981.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687755300474.csv</t>
+          <t>ZM_stims-16512555991687963.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168775576623.csv</t>
+          <t>MM_stims-16512555991987984.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168775562062.csv</t>
+          <t>ZM_stims-16512555991838038.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687755816746.csv</t>
+          <t>SAT_stims-1651255599205798.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687756339335.csv</t>
+          <t>vSAT_stims-1651255599246796.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687756181574.csv</t>
+          <t>SAT_stims-16512555992307959.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687756027293.csv</t>
+          <t>vSAT_stims-16512555992627969.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_39/participant_39_task_orders.xlsx
+++ b/participants/participant_39/participant_39_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555979631255" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255599151795" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555991537955" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555991997964" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255599278794" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-16515890270279803" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515890270747986" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515890271373005" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-1651589027168548" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-1651589027168548" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555979321237.csv</t>
+          <t>TB-16515890268226151.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255597946125.csv</t>
+          <t>TB-16515890270123308.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555979481306.csv</t>
+          <t>OB-165158902609225.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555979621267.csv</t>
+          <t>ZB-match_8-16515890247905405.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OB-16515890262373662.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890250474782.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OB-16515890259484522.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TB-1651589026348887.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890252527726.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555984497952.csv</t>
+          <t>MM_stims-165158902704355.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16512555982287967.csv</t>
+          <t>ZM_stims-16515890270279803.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555983977957.csv</t>
+          <t>MM_stims-16515890270591738.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555990747952.csv</t>
+          <t>ZM_stims-165158902704355.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1651255598597794.csv</t>
+          <t>MM_stims-16515890270747986.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555991347954.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_4-1651255598281795.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-1651255598685798.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ZB-match_6-16512555981737947.csv</t>
+          <t>ZM_stims-16515890270591738.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515890271216724.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890270904233.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890270747986.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-1651589027106048.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515890271373005.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890271529243.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515890271529243.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651589027168548.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -649,156 +801,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255599167794.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555991558046.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555991827981.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555991687963.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555991987984.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555991838038.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255599205798.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-1651255599246796.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555992307959.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555992627969.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>